--- a/技能树.xlsx
+++ b/技能树.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10500"/>
+    <workbookView windowWidth="23040" windowHeight="10500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="嵌入式技能" sheetId="1" r:id="rId1"/>
+    <sheet name="通用技能" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,30 +29,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>技能名</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <si>
+    <t>学习计划</t>
+  </si>
+  <si>
+    <t>已花费时间</t>
   </si>
   <si>
     <t>熟练度</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>进度详情</t>
   </si>
   <si>
     <t>c语言：5h</t>
   </si>
   <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>学习了基本语法，编写了demo</t>
+  </si>
+  <si>
     <t>电路基础：5h</t>
   </si>
   <si>
-    <t>通信协议：5h</t>
-  </si>
-  <si>
-    <t>wps：3h</t>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>通信协议：10h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>学习了：usicu，差实践</t>
   </si>
   <si>
     <t>rtos：5h</t>
+  </si>
+  <si>
+    <t>word：3h</t>
+  </si>
+  <si>
+    <t>excel：3h</t>
+  </si>
+  <si>
+    <t>生活健康常识：2h</t>
+  </si>
+  <si>
+    <t>学会做饭：20h</t>
+  </si>
+  <si>
+    <t>法律常识：2h</t>
+  </si>
+  <si>
+    <t>学会吉他：30h</t>
   </si>
 </sst>
 </file>
@@ -668,9 +701,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -989,63 +1025,81 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.4" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.4" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="34.6666666666667" style="2" customWidth="1"/>
+    <col min="2" max="3" width="23.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.4444444444444" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.5555555555556" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.1</v>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="5" customFormat="1" customHeight="1"/>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
+      <c r="A6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="C2:D2">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -1053,12 +1107,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{02f4188a-e77d-4dc7-b717-507f78723349}</x14:id>
+          <x14:id>{f6e958ab-d5bc-4209-8636-bc8d9b5b9193}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3 B5:B1048576">
+  <conditionalFormatting sqref="C4:D4">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1067,7 +1121,33 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f7924922-edc1-45d3-8757-eaadc1b9e37e}</x14:id>
+          <x14:id>{1413c29c-071c-456e-a05f-14e1cb8c5bcf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a6d60283-5611-454b-8ef8-abf1f3bda4e0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:D3 C6:D1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{98ba76a6-bf95-43cd-be6a-3ee13a42d31b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1079,7 +1159,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{02f4188a-e77d-4dc7-b717-507f78723349}">
+          <x14:cfRule type="dataBar" id="{f6e958ab-d5bc-4209-8636-bc8d9b5b9193}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1091,10 +1171,10 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>C2:D2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f7924922-edc1-45d3-8757-eaadc1b9e37e}">
+          <x14:cfRule type="dataBar" id="{1413c29c-071c-456e-a05f-14e1cb8c5bcf}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1108,7 +1188,36 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B1:B3 B5:B1048576</xm:sqref>
+          <x14:cfRule type="dataBar" id="{a6d60283-5611-454b-8ef8-abf1f3bda4e0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C4:D4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{98ba76a6-bf95-43cd-be6a-3ee13a42d31b}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1:D3 C6:D1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1119,17 +1228,165 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="29.4" customHeight="1" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="24.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="16383" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="40.4" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c4e1036f-0a3b-4d02-bc49-902d28fe2d93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{adc718b4-44f9-4066-b0b3-4b22311ca7fe}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b40cdac3-3a46-4c31-8055-fae985d06057}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c4e1036f-0a3b-4d02-bc49-902d28fe2d93}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{adc718b4-44f9-4066-b0b3-4b22311ca7fe}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b40cdac3-3a46-4c31-8055-fae985d06057}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/技能树.xlsx
+++ b/技能树.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10500" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="10500"/>
   </bookViews>
   <sheets>
-    <sheet name="嵌入式技能" sheetId="1" r:id="rId1"/>
+    <sheet name="嵌入式" sheetId="1" r:id="rId1"/>
     <sheet name="通用技能" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,11 +28,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>学习计划</t>
   </si>
   <si>
+    <t>优先级</t>
+  </si>
+  <si>
     <t>已花费时间</t>
   </si>
   <si>
@@ -64,10 +66,37 @@
     <t>2h</t>
   </si>
   <si>
-    <t>学习了：usicu，差实践</t>
-  </si>
-  <si>
-    <t>rtos：5h</t>
+    <t>学习了：usicu，缺少demo代码</t>
+  </si>
+  <si>
+    <t>esp32：10h</t>
+  </si>
+  <si>
+    <t>rtos：10h</t>
+  </si>
+  <si>
+    <t>qt：10h</t>
+  </si>
+  <si>
+    <t>lvgl：5h</t>
+  </si>
+  <si>
+    <t>硬件开发</t>
+  </si>
+  <si>
+    <t>模拟电路：20h</t>
+  </si>
+  <si>
+    <t>3-5：4h</t>
+  </si>
+  <si>
+    <t>学习了：模拟电路中的二极管，mos管</t>
+  </si>
+  <si>
+    <t>PCB：5h</t>
+  </si>
+  <si>
+    <t>硬件诊断：拿坏的测试：3h</t>
   </si>
   <si>
     <t>word：3h</t>
@@ -98,10 +127,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -251,12 +287,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -571,147 +631,165 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,81 +1103,141 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.4" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.4" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="34.6666666666667" style="2" customWidth="1"/>
-    <col min="2" max="3" width="23.4444444444444" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.4444444444444" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.5555555555556" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="34.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="4" width="23.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.4444444444444" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5555555555556" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" customHeight="1"/>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D2">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="D2">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -1107,12 +1245,38 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f6e958ab-d5bc-4209-8636-bc8d9b5b9193}</x14:id>
+          <x14:id>{d1d27358-6d4a-4a41-a416-14074e4c808e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D4">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bb1f3781-282f-4d33-bee3-9c99dadb774b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{261ddcd1-8239-4a3b-9fd5-12deeef632d7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1121,7 +1285,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1413c29c-071c-456e-a05f-14e1cb8c5bcf}</x14:id>
+          <x14:id>{f1a0073f-2db1-48b5-83dc-6b5f6947efa9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1133,13 +1297,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a6d60283-5611-454b-8ef8-abf1f3bda4e0}</x14:id>
+          <x14:id>{f01df41f-fd58-408e-bd88-548a93bbebf6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D3 C6:D1048576">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="D1:D3 D14:D1048576 D6:D12">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1147,7 +1311,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98ba76a6-bf95-43cd-be6a-3ee13a42d31b}</x14:id>
+          <x14:id>{ae3db07c-2916-40e1-a8a5-7d79f0279ece}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1159,7 +1323,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f6e958ab-d5bc-4209-8636-bc8d9b5b9193}">
+          <x14:cfRule type="dataBar" id="{d1d27358-6d4a-4a41-a416-14074e4c808e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1171,10 +1335,10 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:D2</xm:sqref>
+          <xm:sqref>D2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1413c29c-071c-456e-a05f-14e1cb8c5bcf}">
+          <x14:cfRule type="dataBar" id="{bb1f3781-282f-4d33-bee3-9c99dadb774b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1188,7 +1352,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a6d60283-5611-454b-8ef8-abf1f3bda4e0}">
+          <x14:cfRule type="dataBar" id="{261ddcd1-8239-4a3b-9fd5-12deeef632d7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1200,10 +1364,10 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C4:D4</xm:sqref>
+          <xm:sqref>D4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{98ba76a6-bf95-43cd-be6a-3ee13a42d31b}">
+          <x14:cfRule type="dataBar" id="{f1a0073f-2db1-48b5-83dc-6b5f6947efa9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1217,7 +1381,36 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C1:D3 C6:D1048576</xm:sqref>
+          <x14:cfRule type="dataBar" id="{f01df41f-fd58-408e-bd88-548a93bbebf6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ae3db07c-2916-40e1-a8a5-7d79f0279ece}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D1:D3 D14:D1048576 D6:D12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1230,7 +1423,7 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1241,54 +1434,54 @@
   </cols>
   <sheetData>
     <row r="1" ht="40.4" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2">
         <v>0.3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1494,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c4e1036f-0a3b-4d02-bc49-902d28fe2d93}</x14:id>
+          <x14:id>{c8cef39d-103e-49e7-a203-7399917dea7c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1315,7 +1508,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{adc718b4-44f9-4066-b0b3-4b22311ca7fe}</x14:id>
+          <x14:id>{3c58f5f8-8569-4182-a11c-ed63db443758}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1327,7 +1520,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b40cdac3-3a46-4c31-8055-fae985d06057}</x14:id>
+          <x14:id>{d0ba67f6-755d-470b-98ce-b2aa249ddd45}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1339,7 +1532,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c4e1036f-0a3b-4d02-bc49-902d28fe2d93}">
+          <x14:cfRule type="dataBar" id="{c8cef39d-103e-49e7-a203-7399917dea7c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1356,7 +1549,7 @@
           <xm:sqref>C1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{adc718b4-44f9-4066-b0b3-4b22311ca7fe}">
+          <x14:cfRule type="dataBar" id="{3c58f5f8-8569-4182-a11c-ed63db443758}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1368,7 +1561,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b40cdac3-3a46-4c31-8055-fae985d06057}">
+          <x14:cfRule type="dataBar" id="{d0ba67f6-755d-470b-98ce-b2aa249ddd45}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -1388,21 +1581,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>